--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -639,6 +634,9 @@
     <t>https://www.linkedin.com/in/dr-v-jeyabalaraja-cse-professor-078105355/</t>
   </si>
   <si>
+    <t>VEC-005-02-199</t>
+  </si>
+  <si>
     <t>S.Almelu</t>
   </si>
   <si>
@@ -646,9 +644,6 @@
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?view_op=list_works&amp;hl=en&amp;user=SNrkwHEAAAAJ&amp;gmla=AOv-ny957ccSo7rYVv6ItiEvumw1QmecnA9NENqIxDCUMjHeylokTIfI0IFmnJPnslq59JHatDYv4Q4SBLoc0vjUdfUCGUbhV6k1INUCzqyiTdkv</t>
-  </si>
-  <si>
-    <t>VEC-005-02-199</t>
   </si>
   <si>
     <t>VEC-005-04-196</t>
@@ -657,8 +652,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,7 +665,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -690,44 +694,68 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,10 +766,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -779,69 +807,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -865,54 +895,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -922,7 +951,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -931,7 +960,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -940,7 +969,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -948,10 +977,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -980,7 +1009,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -993,13 +1022,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1018,19 +1046,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1085,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1052,7 +1097,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1061,809 +1106,1128 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="124.5">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="124.5">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="58.5">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="124.5">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="177.75">
+      <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="124.5">
+      <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="124.5">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="138">
+      <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="124.5">
+      <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="58.5">
+      <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="177.75">
+      <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="454.5">
+      <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="124.5">
+      <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="124.5">
+      <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I17" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I19" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I24" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I25" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I27" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I29" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I30" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -52,7 +52,7 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-098.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-098.webp</t>
   </si>
   <si>
     <t>-</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">SRIDEVI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-100.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-100.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=opc_6zIAAAAJ&amp;hl=en</t>
@@ -91,7 +91,7 @@
     <t>C.Bharathi Sri</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-101.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-101.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=CsIAfxQAAAAJ</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">AKHIL NAIR </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-105.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-105.webp</t>
   </si>
   <si>
     <t>No google scholar profile</t>
@@ -137,7 +137,7 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-03-106.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-03-106.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=9LlqgaCij-wC&amp;hl=en</t>
@@ -164,7 +164,7 @@
     <t>JEYAMOHAN</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-107.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-107.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=1&amp;user=s0ZhhbsAAAAJ</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">Dr.Rajeswari </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-110.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-110.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=fORIRQ8AAAAJ&amp;hl=en</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Rohini </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-112.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-112.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=vVTxR6cAAAAJ</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">AMINTA SABATINI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-113.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-113.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=jwRm_nwAAAAJ&amp;hl=en&amp;authuser=1</t>
@@ -239,7 +239,7 @@
     <t>Jayanthi</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-116.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-116.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=mktAFoYAAAAJ&amp;hl=en</t>
@@ -260,7 +260,7 @@
     <t>BABITHA RANI S</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-118.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-118.webp</t>
   </si>
   <si>
     <t>NO GOOGLE SCOHALR ID</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Sruthi Nath </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-120.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-120.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?view_op=new_articles&amp;hl=en&amp;imq=Sruthi+Nath+C&amp;authuser=1#</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">SARANYA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-121.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-121.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=dCIJJIwAAAAJ&amp;view_op=list_works&amp;sortby=title&amp;gmla=ALUCkoXe_uEKMOd_A5QWpytUqyYUvOr5C_gB7cNcMIPgKeB8gvqGsb8N50vwoGUsx6TELUH2X4Vy-bbPsKs-sURTLywotC0XfFm8TPcS3lI&amp;sciund=10124714559873199203</t>
@@ -312,7 +312,7 @@
     <t>MOHANAMBAL</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-122.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-122.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=LqJGj7YAAAAJ</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">CHITRA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-123.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-123.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?hl=en&amp;user=83MJSQ0AAAAJ</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve"> BAMA</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-124.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-124.webp</t>
   </si>
   <si>
     <t>www.linkedin.com/in/bami-s-00330060</t>
@@ -368,7 +368,7 @@
     <t>K Mohanambal</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-125.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-125.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=1&amp;user=Lfv9F2MAAAAJ
@@ -388,7 +388,7 @@
     <t xml:space="preserve">SAKTHI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-127.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-127.webp</t>
   </si>
   <si>
     <t>nil</t>
@@ -400,7 +400,7 @@
     <t>AARTHI</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-129.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-129.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=ZzvYS60AAAAJ&amp;view_op=list_works&amp;authuser=1&amp;gmla=ALUCkoWcdDEY5yRVftp74JiyrBGSfxU9hNztzfCA5pi1CZqluIQOZCwsJplvNDlUdKTCrXO_ExHMoIz2BuY3jGZS</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">KAYALVIZHI </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-130.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-130.webp</t>
   </si>
   <si>
     <t>no</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">Daya Florance </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-131.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-131.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=5eRQlkQAAAAJ&amp;hl=en&amp;oi=ao</t>
@@ -463,7 +463,7 @@
     <t>Dr.Smitha</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-03-132.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-03-132.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=5HOQAJAAAAAJ&amp;hl=en</t>
@@ -481,7 +481,7 @@
     <t>Rajesh</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-134.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-134.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;user=UyKUiPwAAAAJ</t>
@@ -496,7 +496,7 @@
     <t>Usha</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-03-137.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-03-137.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=Bhjuw-8AAAAJ</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve"> Lakshmi Sangeetha</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-03-139.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-03-139.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=3&amp;user=H7-oy7EAAAAJ</t>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">Amirthavalli </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-140.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-140.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=2&amp;user=lSmzRCwAAAAJ</t>
@@ -553,7 +553,7 @@
     <t>HEMALATHA</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-141.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-141.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=sWAjUcUAAAAJ&amp;hl=en</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve"> Subashini</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-144.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-144.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=0LNX_5QAAAAJ</t>
@@ -589,7 +589,7 @@
     <t>PRITTOPAUL</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-03-147.jpg</t>
+    <t>/static/images/profile_photos/005/VEC-005-03-147.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=dNixgGoAAAAJ&amp;hl=en</t>
@@ -611,7 +611,7 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1iDejAj5TqDfsOP-iFCjGOtpRZPHZMJaf</t>
+    <t>/static/images/profile_photos/005/VEC-005-02-199.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?hl=en&amp;user=NOk_B-wAAAAJ
@@ -640,7 +640,7 @@
     <t>S.Almelu</t>
   </si>
   <si>
-    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1iuYETMQVYl1JgnYL-s9xkSVt3gBvV2vc</t>
+    <t>/static/images/profile_photos/005/VEC-005-04-196.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?view_op=list_works&amp;hl=en&amp;user=SNrkwHEAAAAJ&amp;gmla=AOv-ny957ccSo7rYVv6ItiEvumw1QmecnA9NENqIxDCUMjHeylokTIfI0IFmnJPnslq59JHatDYv4Q4SBLoc0vjUdfUCGUbhV6k1INUCzqyiTdkv</t>
@@ -1056,15 +1056,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1075,7 +1075,7 @@
     <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="177.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="138">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="177.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="454.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="382.5">
       <c r="A32" s="3" t="s">
         <v>204</v>
       </c>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76E6FE-70A3-44F8-B95A-67734C46F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -164,9 +163,6 @@
     <t>VEC-005-04-107</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-110.webp</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=fORIRQ8AAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -569,9 +565,6 @@
     <t>JAYANTHI A</t>
   </si>
   <si>
-    <t>RAJESHWARI P</t>
-  </si>
-  <si>
     <t>MOHANAMBAL K</t>
   </si>
   <si>
@@ -593,15 +586,9 @@
     <t>RAJESH T</t>
   </si>
   <si>
-    <t>DR KAVITHA M</t>
-  </si>
-  <si>
     <t>BHARATHI SHRI C</t>
   </si>
   <si>
-    <t>Dr.  JEYABALARAJA V</t>
-  </si>
-  <si>
     <t>DAYA FLORANCE D</t>
   </si>
   <si>
@@ -612,12 +599,21 @@
   </si>
   <si>
     <t>BAMA S</t>
+  </si>
+  <si>
+    <t>Dr. JEYABALARAJA V</t>
+  </si>
+  <si>
+    <t>Professor &amp; AO</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-03-110.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,7 +761,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DB38245A-B088-40BE-9B18-4EC00DA3E104}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,13 +1060,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1119,13 +1117,13 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8"/>
@@ -1134,47 +1132,47 @@
       <c r="H2" s="9"/>
       <c r="I2" s="8"/>
       <c r="J2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1203,168 +1201,168 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" t="s">
         <v>149</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>150</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>151</v>
-      </c>
-      <c r="J5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>123</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="I7" t="s">
         <v>131</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>132</v>
-      </c>
-      <c r="J7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" t="s">
         <v>139</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>140</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>141</v>
-      </c>
-      <c r="J9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" t="s">
         <v>144</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>145</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>146</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="I11" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>136</v>
-      </c>
-      <c r="J11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1393,120 +1391,141 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="I13" t="s">
         <v>82</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>83</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>118</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>119</v>
-      </c>
-      <c r="J14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
         <v>110</v>
       </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>112</v>
-      </c>
-      <c r="J15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>75</v>
-      </c>
-      <c r="J16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1517,352 +1536,318 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>185</v>
+      <c r="A26" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>194</v>
+      <c r="A28" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="10"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
+      <c r="A31" s="7"/>
     </row>
     <row r="33" spans="18:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="18:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1856,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I19" r:id="rId1" xr:uid="{D9EF86FB-37D3-4609-8DD8-DA0CF7FFA7D7}"/>
+    <hyperlink ref="I18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677EF23-1204-4B07-8189-5664994D626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -603,13 +609,75 @@
   </si>
   <si>
     <t>VEC-005-04-101</t>
+  </si>
+  <si>
+    <t>KAVITHA M</t>
+  </si>
+  <si>
+    <t>GEETHA S</t>
+  </si>
+  <si>
+    <t>NISHA P M C</t>
+  </si>
+  <si>
+    <t>NIRANJINI S</t>
+  </si>
+  <si>
+    <t>SUSHANTHI A</t>
+  </si>
+  <si>
+    <t>SANTHIYA R</t>
+  </si>
+  <si>
+    <t>HARI KRISHNAN M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-611.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-612.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-613.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-614.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-615.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-616.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-617.webp</t>
+  </si>
+  <si>
+    <t>VEC-005-04-611</t>
+  </si>
+  <si>
+    <t>VEC-005-04-612</t>
+  </si>
+  <si>
+    <t>VEC-005-04-613</t>
+  </si>
+  <si>
+    <t>VEC-005-04-614</t>
+  </si>
+  <si>
+    <t>VEC-005-04-615</t>
+  </si>
+  <si>
+    <t>VEC-005-04-616</t>
+  </si>
+  <si>
+    <t>VEC-005-04-617</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,7 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFce9178"/>
+      <color rgb="FFCE9178"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -712,77 +780,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -793,10 +850,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -834,71 +891,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,7 +983,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -949,11 +1006,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -962,13 +1019,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -978,7 +1035,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -987,7 +1044,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -996,7 +1053,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1004,10 +1061,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1072,37 +1129,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="18" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,1138 +1184,837 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="4" t="s">
+      <c r="I12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="15" t="s">
+    </row>
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="15" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="15" t="s">
+    </row>
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="4" t="s">
+      <c r="I21" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="4" t="s">
+      <c r="I22" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4" t="s">
+      <c r="I24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4" t="s">
+      <c r="I25" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>172</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="15" t="s">
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4" t="s">
+      <c r="I27" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>180</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6" t="s">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="4" t="s">
+      <c r="I29" t="s">
         <v>186</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="17"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677EF23-1204-4B07-8189-5664994D626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1762957-BE3A-49C7-A560-A2BD94B11CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
   <si>
     <t>Name</t>
   </si>
@@ -672,6 +672,36 @@
   </si>
   <si>
     <t>VEC-005-04-617</t>
+  </si>
+  <si>
+    <t>MAHESWARI P</t>
+  </si>
+  <si>
+    <t>SASI KALA.B</t>
+  </si>
+  <si>
+    <t>SWETHA K R</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-05-20.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-05-21.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-05-22.webp</t>
+  </si>
+  <si>
+    <t>VEC-005-05-22</t>
+  </si>
+  <si>
+    <t>VEC-005-05-21</t>
+  </si>
+  <si>
+    <t>VEC-005-05-20</t>
   </si>
 </sst>
 </file>
@@ -733,7 +763,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -776,11 +806,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,6 +873,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,10 +1179,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2016,6 +2062,48 @@
         <v>214</v>
       </c>
     </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1762957-BE3A-49C7-A560-A2BD94B11CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A92690-2DB2-4B05-AA44-40ED85DB6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2208" yWindow="2532" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,22 +686,22 @@
     <t>Lab Instructor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/005/VEC-005-05-20.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/005/VEC-005-05-21.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/005/VEC-005-05-22.webp</t>
-  </si>
-  <si>
-    <t>VEC-005-05-22</t>
-  </si>
-  <si>
-    <t>VEC-005-05-21</t>
-  </si>
-  <si>
-    <t>VEC-005-05-20</t>
+    <t>/static/images/profile_photos/005/VEC-005-05-022.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-05-021.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-05-020.webp</t>
+  </si>
+  <si>
+    <t>VEC-005-05-020</t>
+  </si>
+  <si>
+    <t>VEC-005-05-021</t>
+  </si>
+  <si>
+    <t>VEC-005-05-022</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A92690-2DB2-4B05-AA44-40ED85DB6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99FC88B-059E-4259-8E8D-AB1CA6AFBAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="2532" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15192" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>unique_id</t>
-  </si>
-  <si>
-    <t>MURUGESHWARI B</t>
   </si>
   <si>
     <t>Professor &amp; Head</t>
@@ -96,9 +93,6 @@
     <t>VEC-005-02-199</t>
   </si>
   <si>
-    <t>GUNASUNDARI S</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>VEC-005-03-106</t>
-  </si>
-  <si>
-    <t>PRITTOPAUL P</t>
   </si>
   <si>
     <t>Associate Professor</t>
@@ -166,9 +157,6 @@
     <t>VEC-005-03-132</t>
   </si>
   <si>
-    <t>USHA M</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-03-137.webp</t>
   </si>
   <si>
@@ -205,9 +193,6 @@
     <t>VEC-005-04-110</t>
   </si>
   <si>
-    <t>HEMALATHA  B</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>VEC-005-04-141</t>
   </si>
   <si>
-    <t>SUBASHINI T</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-144.webp</t>
   </si>
   <si>
@@ -244,9 +226,6 @@
     <t>VEC-005-04-144</t>
   </si>
   <si>
-    <t>AMIRTHAVALLI R</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-140.webp</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>VEC-005-04-140</t>
   </si>
   <si>
-    <t>SRIDEVI S</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-100.webp</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>VEC-005-04-100</t>
   </si>
   <si>
-    <t>SARANYA P</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-121.webp</t>
   </si>
   <si>
@@ -298,9 +271,6 @@
     <t>VEC-005-04-121</t>
   </si>
   <si>
-    <t>DAYA FLORANCE D</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-131.webp</t>
   </si>
   <si>
@@ -320,9 +290,6 @@
   </si>
   <si>
     <t>VEC-005-04-131</t>
-  </si>
-  <si>
-    <t>KAYALVIZHI S</t>
   </si>
   <si>
     <t>/static/images/profile_photos/005/VEC-005-04-130.webp</t>
@@ -362,9 +329,6 @@
     <t>VEC-005-04-118</t>
   </si>
   <si>
-    <t>JAYANTHI A</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-116.webp</t>
   </si>
   <si>
@@ -381,9 +345,6 @@
   </si>
   <si>
     <t>VEC-005-04-116</t>
-  </si>
-  <si>
-    <t>MOHANAMBAL K</t>
   </si>
   <si>
     <t>/static/images/profile_photos/005/VEC-005-04-122.webp</t>
@@ -406,9 +367,6 @@
     <t>VEC-005-04-122</t>
   </si>
   <si>
-    <t>SRUTHI NATH C</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-120.webp</t>
   </si>
   <si>
@@ -421,9 +379,6 @@
     <t>VEC-005-04-120</t>
   </si>
   <si>
-    <t>AMINTA SABATINI S</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-113.webp</t>
   </si>
   <si>
@@ -442,9 +397,6 @@
     <t>VEC-005-04-113</t>
   </si>
   <si>
-    <t>ROHINI C</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-112.webp</t>
   </si>
   <si>
@@ -457,9 +409,6 @@
     <t>VEC-005-04-112</t>
   </si>
   <si>
-    <t>AARTHI K C</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-129.webp</t>
   </si>
   <si>
@@ -476,9 +425,6 @@
   </si>
   <si>
     <t>VEC-005-04-129</t>
-  </si>
-  <si>
-    <t>AKHIL NAIR R</t>
   </si>
   <si>
     <t>/static/images/profile_photos/005/VEC-005-04-105.webp</t>
@@ -503,9 +449,6 @@
     <t>VEC-005-04-105</t>
   </si>
   <si>
-    <t>JEYA MOHAN H</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-107.webp</t>
   </si>
   <si>
@@ -518,9 +461,6 @@
     <t>VEC-005-04-107</t>
   </si>
   <si>
-    <t>CHITRA R</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-123.webp</t>
   </si>
   <si>
@@ -539,9 +479,6 @@
     <t>VEC-005-04-123</t>
   </si>
   <si>
-    <t>SAKTHI D</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-127.webp</t>
   </si>
   <si>
@@ -551,9 +488,6 @@
     <t>VEC-005-04-127</t>
   </si>
   <si>
-    <t>BAMA S</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-124.webp</t>
   </si>
   <si>
@@ -563,9 +497,6 @@
     <t>VEC-005-04-124</t>
   </si>
   <si>
-    <t>SHYAMALA DEVI G G</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-098.webp</t>
   </si>
   <si>
@@ -578,9 +509,6 @@
     <t>VEC-005-04-098</t>
   </si>
   <si>
-    <t>RAJESH T</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-134.webp</t>
   </si>
   <si>
@@ -593,9 +521,6 @@
     <t>VEC-005-04-134</t>
   </si>
   <si>
-    <t>BHARATHI SHRI C</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-101.webp</t>
   </si>
   <si>
@@ -611,27 +536,6 @@
     <t>VEC-005-04-101</t>
   </si>
   <si>
-    <t>KAVITHA M</t>
-  </si>
-  <si>
-    <t>GEETHA S</t>
-  </si>
-  <si>
-    <t>NISHA P M C</t>
-  </si>
-  <si>
-    <t>NIRANJINI S</t>
-  </si>
-  <si>
-    <t>SUSHANTHI A</t>
-  </si>
-  <si>
-    <t>SANTHIYA R</t>
-  </si>
-  <si>
-    <t>HARI KRISHNAN M</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-611.webp</t>
   </si>
   <si>
@@ -674,15 +578,6 @@
     <t>VEC-005-04-617</t>
   </si>
   <si>
-    <t>MAHESWARI P</t>
-  </si>
-  <si>
-    <t>SASI KALA.B</t>
-  </si>
-  <si>
-    <t>SWETHA K R</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -702,6 +597,114 @@
   </si>
   <si>
     <t>VEC-005-05-022</t>
+  </si>
+  <si>
+    <t>Mrs. MURUGESHWARI B</t>
+  </si>
+  <si>
+    <t>Mrs. GUNASUNDARI S</t>
+  </si>
+  <si>
+    <t>Mrs. USHA M</t>
+  </si>
+  <si>
+    <t>Mrs. HEMALATHA  B</t>
+  </si>
+  <si>
+    <t>Mrs. SUBASHINI T</t>
+  </si>
+  <si>
+    <t>Mrs. AMIRTHAVALLI R</t>
+  </si>
+  <si>
+    <t>Mrs. SRIDEVI S</t>
+  </si>
+  <si>
+    <t>Mrs. SARANYA P</t>
+  </si>
+  <si>
+    <t>Mrs. DAYA FLORANCE D</t>
+  </si>
+  <si>
+    <t>Mrs. KAYALVIZHI S</t>
+  </si>
+  <si>
+    <t>Mrs. BABITHA RANI S</t>
+  </si>
+  <si>
+    <t>Mrs. JAYANTHI A</t>
+  </si>
+  <si>
+    <t>Mrs. MOHANAMBAL K</t>
+  </si>
+  <si>
+    <t>Mrs. SRUTHI NATH C</t>
+  </si>
+  <si>
+    <t>Mrs. AMINTA SABATINI S</t>
+  </si>
+  <si>
+    <t>Mrs. ROHINI C</t>
+  </si>
+  <si>
+    <t>Mrs. AARTHI K C</t>
+  </si>
+  <si>
+    <t>Mr. AKHIL NAIR R</t>
+  </si>
+  <si>
+    <t>Mr. JEYA MOHAN H</t>
+  </si>
+  <si>
+    <t>Mrs. CHITRA R</t>
+  </si>
+  <si>
+    <t>Mrs. BAMA S</t>
+  </si>
+  <si>
+    <t>Mrs. SHYAMALA DEVI G G</t>
+  </si>
+  <si>
+    <t>Mr. RAJESH T</t>
+  </si>
+  <si>
+    <t>Mrs. BHARATHI SHRI C</t>
+  </si>
+  <si>
+    <t>Mrs. KAVITHA M</t>
+  </si>
+  <si>
+    <t>Mrs. GEETHA S</t>
+  </si>
+  <si>
+    <t>Mrs. NISHA P M C</t>
+  </si>
+  <si>
+    <t>Mrs. NIRANJINI S</t>
+  </si>
+  <si>
+    <t>Mrs. SUSHANTHI A</t>
+  </si>
+  <si>
+    <t>Mrs. SANTHIYA R</t>
+  </si>
+  <si>
+    <t>Mr. HARI KRISHNAN M</t>
+  </si>
+  <si>
+    <t>Mrs. MAHESWARI P</t>
+  </si>
+  <si>
+    <t>Mrs. SASI KALA.B</t>
+  </si>
+  <si>
+    <t>Mrs. SWETHA K R</t>
+  </si>
+  <si>
+    <t>Mrs. SAKTHI D</t>
+  </si>
+  <si>
+    <t>Mrs. PRITTOPAUL P</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,13 +1236,13 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
@@ -1248,860 +1251,860 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="J5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="J6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="J9" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="J36" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="J37" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J39" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99FC88B-059E-4259-8E8D-AB1CA6AFBAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520A013-CC66-47D6-8662-543B6D3955EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15192" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="16692" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -307,28 +307,6 @@
     <t>VEC-005-04-130</t>
   </si>
   <si>
-    <t>BABITHA RANI S</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-118.webp</t>
-  </si>
-  <si>
-    <t>NO GOOGLE SCOHALR ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babitha Rani Sahul Hameed
-</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0009-0003-9650-5563</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/babitha-sahulhameed-3b393632b</t>
-  </si>
-  <si>
-    <t>VEC-005-04-118</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/005/VEC-005-04-116.webp</t>
   </si>
   <si>
@@ -602,9 +580,6 @@
     <t>Mrs. MURUGESHWARI B</t>
   </si>
   <si>
-    <t>Mrs. GUNASUNDARI S</t>
-  </si>
-  <si>
     <t>Mrs. USHA M</t>
   </si>
   <si>
@@ -614,12 +589,6 @@
     <t>Mrs. SUBASHINI T</t>
   </si>
   <si>
-    <t>Mrs. AMIRTHAVALLI R</t>
-  </si>
-  <si>
-    <t>Mrs. SRIDEVI S</t>
-  </si>
-  <si>
     <t>Mrs. SARANYA P</t>
   </si>
   <si>
@@ -629,9 +598,6 @@
     <t>Mrs. KAYALVIZHI S</t>
   </si>
   <si>
-    <t>Mrs. BABITHA RANI S</t>
-  </si>
-  <si>
     <t>Mrs. JAYANTHI A</t>
   </si>
   <si>
@@ -671,21 +637,12 @@
     <t>Mrs. BHARATHI SHRI C</t>
   </si>
   <si>
-    <t>Mrs. KAVITHA M</t>
-  </si>
-  <si>
     <t>Mrs. GEETHA S</t>
   </si>
   <si>
     <t>Mrs. NISHA P M C</t>
   </si>
   <si>
-    <t>Mrs. NIRANJINI S</t>
-  </si>
-  <si>
-    <t>Mrs. SUSHANTHI A</t>
-  </si>
-  <si>
     <t>Mrs. SANTHIYA R</t>
   </si>
   <si>
@@ -698,13 +655,31 @@
     <t>Mrs. SASI KALA.B</t>
   </si>
   <si>
-    <t>Mrs. SWETHA K R</t>
-  </si>
-  <si>
     <t>Mrs. SAKTHI D</t>
   </si>
   <si>
     <t>Mrs. PRITTOPAUL P</t>
+  </si>
+  <si>
+    <t>Dr. GUNASUNDARI S</t>
+  </si>
+  <si>
+    <t>Dr. AMIRTHAVALLI R</t>
+  </si>
+  <si>
+    <t>Dr. SRIDEVI S</t>
+  </si>
+  <si>
+    <t>Dr. KAVITHA M</t>
+  </si>
+  <si>
+    <t>Ms. NIRANJINI S</t>
+  </si>
+  <si>
+    <t>Ms. SUSHANTHI A</t>
+  </si>
+  <si>
+    <t>Ms. SWETHA K R</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1157,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1211,7 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
@@ -1289,7 +1264,7 @@
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>23</v>
@@ -1321,53 +1296,53 @@
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>32</v>
@@ -1416,53 +1391,53 @@
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>56</v>
@@ -1482,7 +1457,7 @@
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>56</v>
@@ -1510,601 +1485,572 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>197</v>
+      <c r="A13" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s">
-        <v>167</v>
-      </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
-      </c>
-      <c r="R35" s="15"/>
+        <v>174</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>220</v>
+      <c r="A37" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -704,7 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -716,7 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -783,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +796,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -818,29 +821,29 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,24 +1153,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="53.14785714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="19" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
@@ -1202,71 +1205,71 @@
         <v>9</v>
       </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
       <c r="R1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="88.5" customFormat="1" s="10">
-      <c r="A3" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="88.5" customFormat="1" s="11">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="12"/>
@@ -1276,19 +1279,19 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1300,7 +1303,7 @@
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1310,25 +1313,25 @@
         <v>33</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4"/>
@@ -1344,25 +1347,25 @@
         <v>40</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="4"/>
@@ -1378,25 +1381,25 @@
         <v>46</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4"/>
@@ -1410,25 +1413,25 @@
         <v>51</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1438,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1448,25 +1451,25 @@
         <v>59</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="4"/>
@@ -1482,25 +1485,25 @@
         <v>66</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="4"/>
@@ -1516,25 +1519,25 @@
         <v>72</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="47.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="4"/>
@@ -1548,25 +1551,25 @@
         <v>77</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
       <c r="A12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1586,25 +1589,25 @@
         <v>85</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1616,7 +1619,7 @@
       <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1626,25 +1629,25 @@
         <v>91</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="116.25">
       <c r="A14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="4"/>
@@ -1658,25 +1661,25 @@
         <v>96</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="88.5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="4"/>
@@ -1686,7 +1689,7 @@
       <c r="G15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1696,25 +1699,25 @@
         <v>104</v>
       </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1726,7 +1729,7 @@
       <c r="G16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1736,25 +1739,25 @@
         <v>110</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="4"/>
@@ -1764,7 +1767,7 @@
       <c r="G17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1774,25 +1777,25 @@
         <v>117</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1810,25 +1813,25 @@
         <v>124</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="4"/>
@@ -1842,25 +1845,25 @@
         <v>129</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1878,25 +1881,25 @@
         <v>136</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="4"/>
@@ -1910,25 +1913,25 @@
         <v>141</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
       <c r="R21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1946,25 +1949,25 @@
         <v>148</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1974,7 +1977,7 @@
         <v>153</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="7" t="s">
         <v>154</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -1984,25 +1987,25 @@
         <v>156</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E24" s="4"/>
@@ -2016,25 +2019,25 @@
         <v>161</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2052,25 +2055,25 @@
         <v>168</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="4"/>
@@ -2084,25 +2087,25 @@
         <v>172</v>
       </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
       <c r="R26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="4"/>
@@ -2116,25 +2119,25 @@
         <v>176</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
       <c r="R27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2146,7 +2149,7 @@
       <c r="G28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="7" t="s">
         <v>179</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -2155,26 +2158,26 @@
       <c r="J28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
       <c r="R28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E29" s="4"/>
@@ -2188,22 +2191,22 @@
         <v>186</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="12"/>
@@ -2216,22 +2219,22 @@
         <v>189</v>
       </c>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>191</v>
       </c>
       <c r="D31" s="12"/>
@@ -2244,22 +2247,22 @@
         <v>192</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D32" s="12"/>
@@ -2272,22 +2275,22 @@
         <v>195</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D33" s="12"/>
@@ -2300,22 +2303,22 @@
         <v>198</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>200</v>
       </c>
       <c r="D34" s="12"/>
@@ -2328,22 +2331,22 @@
         <v>201</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="16"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D35" s="12"/>
@@ -2356,22 +2359,22 @@
         <v>204</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
       <c r="R35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D36" s="12"/>
@@ -2384,22 +2387,22 @@
         <v>207</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
       <c r="R36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D37" s="12"/>
@@ -2412,22 +2415,22 @@
         <v>211</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
       <c r="R37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D38" s="12"/>
@@ -2440,22 +2443,22 @@
         <v>214</v>
       </c>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
       <c r="R38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>216</v>
       </c>
       <c r="D39" s="12"/>
@@ -2468,12 +2471,12 @@
         <v>217</v>
       </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
       <c r="R39" s="4"/>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/005.xlsx
+++ b/docs/STAFF-DATA/005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -277,6 +277,24 @@
     <t>VEC-005-04-100</t>
   </si>
   <si>
+    <t>Dr. KAVITHA M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-611.webp</t>
+  </si>
+  <si>
+    <t>VEC-005-04-611</t>
+  </si>
+  <si>
+    <t>Dr. ALMELU S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/005/VEC-005-04-720.webp</t>
+  </si>
+  <si>
+    <t>VEC-005-004-720</t>
+  </si>
+  <si>
     <t>Mrs. BHARATHI SHRI C</t>
   </si>
   <si>
@@ -581,15 +599,6 @@
   </si>
   <si>
     <t>VEC-005-04-134</t>
-  </si>
-  <si>
-    <t>Dr. KAVITHA M</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/005/VEC-005-04-611.webp</t>
-  </si>
-  <si>
-    <t>VEC-005-04-611</t>
   </si>
   <si>
     <t>Mrs. GEETHA S</t>
@@ -697,6 +706,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -711,12 +726,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFce9178"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -797,13 +806,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -812,25 +821,25 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -840,10 +849,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1156,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1156,21 +1165,21 @@
     <col min="1" max="1" style="17" width="29.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="18" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="18" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
@@ -1272,17 +1281,17 @@
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="88.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1339,7 +1348,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1414,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4" t="s">
         <v>65</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
         <v>71</v>
       </c>
@@ -1543,7 +1552,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="4" t="s">
         <v>76</v>
       </c>
@@ -1560,7 +1569,7 @@
       <c r="R11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1581,7 +1590,7 @@
       <c r="G12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="4" t="s">
         <v>84</v>
       </c>
@@ -1597,8 +1606,8 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75">
-      <c r="A13" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1607,26 +1616,14 @@
       <c r="C13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
@@ -1637,66 +1634,64 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="116.25">
-      <c r="A14" s="13" t="s">
-        <v>92</v>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33.75">
+      <c r="A15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="88.5">
-      <c r="A15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
@@ -1707,36 +1702,28 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="13" t="s">
-        <v>105</v>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="116.25">
+      <c r="A16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
@@ -1747,34 +1734,34 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="88.5">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
@@ -1785,32 +1772,36 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="6" t="s">
-        <v>118</v>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
@@ -1823,26 +1814,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
@@ -1855,30 +1852,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
@@ -1891,26 +1888,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
@@ -1923,30 +1920,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
@@ -1959,32 +1956,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
@@ -1997,26 +1988,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
@@ -2029,30 +2024,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
@@ -2064,27 +2061,27 @@
       <c r="R25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="13" t="s">
-        <v>169</v>
+      <c r="A26" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
@@ -2096,27 +2093,31 @@
       <c r="R26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="J27" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
@@ -2128,37 +2129,29 @@
       <c r="R27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="J28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -2168,27 +2161,27 @@
       <c r="R28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6" t="s">
-        <v>182</v>
+      <c r="A29" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
@@ -2200,25 +2193,37 @@
       <c r="R29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2228,21 +2233,25 @@
       <c r="R30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="12"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>192</v>
       </c>
@@ -2256,7 +2265,7 @@
       <c r="R31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2265,11 +2274,11 @@
       <c r="C32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
         <v>195</v>
@@ -2284,7 +2293,7 @@
       <c r="R32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2293,11 +2302,11 @@
       <c r="C33" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
         <v>198</v>
@@ -2311,8 +2320,8 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2321,11 +2330,11 @@
       <c r="C34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
         <v>201</v>
@@ -2337,10 +2346,10 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="13" t="s">
+      <c r="R34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2349,11 +2358,11 @@
       <c r="C35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
         <v>204</v>
@@ -2365,10 +2374,10 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="4"/>
+      <c r="R35" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2377,11 +2386,11 @@
       <c r="C36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
         <v>207</v>
@@ -2396,23 +2405,23 @@
       <c r="R36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
@@ -2425,19 +2434,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
         <v>214</v>
@@ -2456,16 +2465,16 @@
         <v>215</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
         <v>217</v>
@@ -2479,6 +2488,34 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="4"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
